--- a/lib/exps/healy_2010_rcm_n-c4h10_phi1_20bar_argon.xlsx
+++ b/lib/exps/healy_2010_rcm_n-c4h10_phi1_20bar_argon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/exps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton_mulvihill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00215108-6F53-ED4C-8969-3D009A1FDD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29045FE-1FC3-B546-9C55-D8FE0A7B1AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50480" yWindow="7040" windowWidth="18460" windowHeight="14120" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="21960" yWindow="7960" windowWidth="29920" windowHeight="15860" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="62">
   <si>
     <t>parameter</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>phi 1.0, 20 bar, Ar</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>[He]</t>
   </si>
 </sst>
 </file>
@@ -630,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E566FD-7BF3-F74E-98A5-DE111CAFB7E0}">
-  <dimension ref="A1:CH29"/>
+  <dimension ref="A1:CH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -792,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1335,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1352,31 +1358,52 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-    </row>
     <row r="29" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
       <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
